--- a/VersionRecords/Version 5.1.0.2_beta/版本Bug和特性计划及评审表v5.1.0.2beta_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.0.2_beta/版本Bug和特性计划及评审表v5.1.0.2beta_马丁组.xlsx
@@ -118,7 +118,7 @@
     <t>能</t>
   </si>
   <si>
-    <t>添加房源无法添加默认付款方式</t>
+    <t>添加房源无法读取多个默认付款方式</t>
   </si>
   <si>
     <t>徐文瑞</t>
@@ -192,12 +192,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -252,12 +252,72 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,21 +339,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,37 +368,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,19 +385,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -372,27 +392,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -434,7 +450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,25 +468,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,13 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,19 +522,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,67 +594,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,13 +618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,24 +749,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,31 +782,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,161 +826,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,16 +1013,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="55" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="53" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="53" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1060,13 +1082,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1103,7 +1125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="56">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1114,50 +1136,52 @@
     <cellStyle name="差" xfId="7" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="常规 6" xfId="11"/>
-    <cellStyle name="注释" xfId="12" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="13" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="14" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="15" builtinId="11"/>
-    <cellStyle name="标题" xfId="16" builtinId="15"/>
-    <cellStyle name="甘特图" xfId="17"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="常规 9" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="常规 3 12" xfId="46"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="51"/>
-    <cellStyle name="常规 3" xfId="52"/>
-    <cellStyle name="常规 4" xfId="53"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="甘特图" xfId="19"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="常规 9" xfId="22"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="常规 3 12" xfId="48"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="49" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="53"/>
+    <cellStyle name="常规 3" xfId="54"/>
+    <cellStyle name="常规 4" xfId="55"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1523,7 +1547,7 @@
   <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
